--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\2024_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8748A16F-316B-479E-8D3C-F16FAF8D901C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D7D56-7789-4B0E-AE94-47305F17E53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94F0BB87-3E48-473B-942D-98824DCDEC0A}"/>
   </bookViews>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{F37CE799-2355-4D36-B3F4-8C1C47158EC7}">
+    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{F37CE799-2355-4D36-B3F4-8C1C47158EC7}">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{45AC4208-4EB5-4F12-B61D-7A40E131408E}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{45AC4208-4EB5-4F12-B61D-7A40E131408E}">
       <text>
         <r>
           <rPr>
@@ -307,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{37CA24C4-AC16-4092-8668-EE2DA9C58FC9}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{37CA24C4-AC16-4092-8668-EE2DA9C58FC9}">
       <text>
         <r>
           <rPr>
@@ -333,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{9F64D4D2-E899-4040-A8BB-A02445F14A6D}">
+    <comment ref="N11" authorId="0" shapeId="0" xr:uid="{3524015D-A48C-44F8-83CE-613D0719B6E1}">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{D94A56EA-12DB-4957-A1D8-FEEC35ED949F}">
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{780858AB-143A-4903-B55D-398AAAD4967F}">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V11" authorId="0" shapeId="0" xr:uid="{48607845-C273-41CF-8CA4-0EC9BAE4A488}">
+    <comment ref="V12" authorId="0" shapeId="0" xr:uid="{25AA4FA2-36EF-468A-8954-97A44527817E}">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{259049F3-AD42-440B-ADA3-E32A63B489A9}">
+    <comment ref="W12" authorId="0" shapeId="0" xr:uid="{24D4C493-2BD7-4DC4-B803-5166086D94C9}">
       <text>
         <r>
           <rPr>
@@ -424,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X11" authorId="0" shapeId="0" xr:uid="{7C64480C-8911-4EBB-9BF8-7C600406AA3E}">
+    <comment ref="X12" authorId="0" shapeId="0" xr:uid="{4E4D7EBD-A023-4895-B817-D0187F12D23D}">
       <text>
         <r>
           <rPr>
@@ -449,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD12" authorId="0" shapeId="0" xr:uid="{1244BDCC-5C02-425D-944E-AA647E49D2D7}">
+    <comment ref="AD13" authorId="0" shapeId="0" xr:uid="{1244BDCC-5C02-425D-944E-AA647E49D2D7}">
       <text>
         <r>
           <rPr>
@@ -474,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR12" authorId="0" shapeId="0" xr:uid="{02EE4AFA-12F8-427E-BE46-ECA40FFA853E}">
+    <comment ref="AR13" authorId="0" shapeId="0" xr:uid="{02EE4AFA-12F8-427E-BE46-ECA40FFA853E}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU12" authorId="0" shapeId="0" xr:uid="{D1B095F2-E8A5-4DA6-BFCD-B8D9EB43B082}">
+    <comment ref="AU13" authorId="0" shapeId="0" xr:uid="{D1B095F2-E8A5-4DA6-BFCD-B8D9EB43B082}">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{84EF1AC3-F84F-429A-985F-D3919E5CCA3F}">
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{84EF1AC3-F84F-429A-985F-D3919E5CCA3F}">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{753986C4-B584-4994-8D0F-D4BB6F7F71FB}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{753986C4-B584-4994-8D0F-D4BB6F7F71FB}">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{DD621336-975B-4527-A3E8-88E43807383A}">
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{E245E715-C7B6-4536-BC8F-C211D3AB1956}">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{5EB56849-87C1-4A8E-B07A-F8200D59D58E}">
+    <comment ref="P16" authorId="0" shapeId="0" xr:uid="{6E88C09D-BFAC-4125-8888-70BB76CBD400}">
       <text>
         <r>
           <rPr>
@@ -615,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V15" authorId="0" shapeId="0" xr:uid="{5B10F933-ECD1-4878-A474-3D61F4C18738}">
+    <comment ref="V16" authorId="0" shapeId="0" xr:uid="{84670F60-CFE9-46F6-BC76-FE7B77FA1963}">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W15" authorId="0" shapeId="0" xr:uid="{994C8DF8-3B97-43C3-A0F7-C5FD56CD0902}">
+    <comment ref="W16" authorId="0" shapeId="0" xr:uid="{F3C703FB-CCF5-4596-8812-30A7F31B9F49}">
       <text>
         <r>
           <rPr>
@@ -665,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X15" authorId="0" shapeId="0" xr:uid="{8B0DFF33-8DDF-40FB-8FAE-0A69085F3A2E}">
+    <comment ref="X16" authorId="0" shapeId="0" xr:uid="{19BB3CC0-825A-4335-B41D-B347804884F6}">
       <text>
         <r>
           <rPr>
@@ -690,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD16" authorId="0" shapeId="0" xr:uid="{D871071B-7E4C-43FC-9E56-080B98996909}">
+    <comment ref="AD17" authorId="0" shapeId="0" xr:uid="{D871071B-7E4C-43FC-9E56-080B98996909}">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU16" authorId="0" shapeId="0" xr:uid="{5254A6BD-F616-45C7-B75C-66FE8266DCF5}">
+    <comment ref="AU17" authorId="0" shapeId="0" xr:uid="{5254A6BD-F616-45C7-B75C-66FE8266DCF5}">
       <text>
         <r>
           <rPr>
@@ -739,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR17" authorId="0" shapeId="0" xr:uid="{22AA6E0C-CCC8-4A3E-B279-7D0A566AE2D0}">
+    <comment ref="AR18" authorId="0" shapeId="0" xr:uid="{22AA6E0C-CCC8-4A3E-B279-7D0A566AE2D0}">
       <text>
         <r>
           <rPr>
@@ -769,7 +769,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>DEV201</t>
   </si>
@@ -982,6 +982,12 @@
   </si>
   <si>
     <t>Modules F.Rahmouni oussama</t>
+  </si>
+  <si>
+    <t>Réaliser un projet de synthèse</t>
+  </si>
+  <si>
+    <t>Soutenance</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1025,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,8 +1092,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1231,52 +1249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1326,17 +1298,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1422,19 +1383,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1449,27 +1397,38 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1490,8 +1449,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1502,19 +1459,64 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,54 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1907,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6675AFBB-6A96-4B34-A155-68C8C20E19A3}">
-  <dimension ref="B1:AV2564"/>
+  <dimension ref="B1:AV2565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="BF10" sqref="BF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,72 +1907,72 @@
       <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="33" t="s">
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="35" t="s">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="32" t="s">
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="36" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="34" t="s">
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="37"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="62"/>
     </row>
     <row r="4" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2143,198 +2098,198 @@
       <c r="AT4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AU4" s="24" t="s">
+      <c r="AU4" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <v>45537</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <f>E5+7</f>
         <v>45544</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <f>F5+7</f>
         <v>45551</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <f>G5+7</f>
         <v>45558</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="25">
         <f t="shared" ref="I5:AU5" si="0">H5+7</f>
         <v>45565</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="25">
         <f t="shared" si="0"/>
         <v>45572</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="25">
         <f t="shared" si="0"/>
         <v>45579</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="25">
         <f t="shared" si="0"/>
         <v>45586</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <f t="shared" si="0"/>
         <v>45593</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="26">
         <f t="shared" si="0"/>
         <v>45600</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="26">
         <f t="shared" si="0"/>
         <v>45607</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="26">
         <f t="shared" si="0"/>
         <v>45614</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="27">
         <f t="shared" si="0"/>
         <v>45621</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="27">
         <f t="shared" si="0"/>
         <v>45628</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="27">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="27">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="24">
         <f t="shared" si="0"/>
         <v>45656</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="24">
         <f t="shared" si="0"/>
         <v>45663</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="24">
         <f t="shared" si="0"/>
         <v>45670</v>
       </c>
-      <c r="Y5" s="26">
+      <c r="Y5" s="24">
         <f t="shared" si="0"/>
         <v>45677</v>
       </c>
-      <c r="Z5" s="27">
+      <c r="Z5" s="25">
         <f t="shared" si="0"/>
         <v>45684</v>
       </c>
-      <c r="AA5" s="27">
+      <c r="AA5" s="25">
         <f t="shared" si="0"/>
         <v>45691</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="25">
         <f t="shared" si="0"/>
         <v>45698</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AC5" s="25">
         <f t="shared" si="0"/>
         <v>45705</v>
       </c>
-      <c r="AD5" s="28">
+      <c r="AD5" s="26">
         <f t="shared" si="0"/>
         <v>45712</v>
       </c>
-      <c r="AE5" s="28">
+      <c r="AE5" s="26">
         <f t="shared" si="0"/>
         <v>45719</v>
       </c>
-      <c r="AF5" s="28">
+      <c r="AF5" s="26">
         <f t="shared" si="0"/>
         <v>45726</v>
       </c>
-      <c r="AG5" s="28">
+      <c r="AG5" s="26">
         <f t="shared" si="0"/>
         <v>45733</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="26">
         <f t="shared" si="0"/>
         <v>45740</v>
       </c>
-      <c r="AI5" s="29">
+      <c r="AI5" s="27">
         <f t="shared" si="0"/>
         <v>45747</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AJ5" s="27">
         <f t="shared" si="0"/>
         <v>45754</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AK5" s="27">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="AL5" s="29">
+      <c r="AL5" s="27">
         <f t="shared" si="0"/>
         <v>45768</v>
       </c>
-      <c r="AM5" s="30">
+      <c r="AM5" s="28">
         <f t="shared" si="0"/>
         <v>45775</v>
       </c>
-      <c r="AN5" s="30">
+      <c r="AN5" s="28">
         <f t="shared" si="0"/>
         <v>45782</v>
       </c>
-      <c r="AO5" s="30">
+      <c r="AO5" s="28">
         <f t="shared" si="0"/>
         <v>45789</v>
       </c>
-      <c r="AP5" s="30">
+      <c r="AP5" s="28">
         <f t="shared" si="0"/>
         <v>45796</v>
       </c>
-      <c r="AQ5" s="27">
+      <c r="AQ5" s="25">
         <f t="shared" si="0"/>
         <v>45803</v>
       </c>
-      <c r="AR5" s="27">
+      <c r="AR5" s="25">
         <f t="shared" si="0"/>
         <v>45810</v>
       </c>
-      <c r="AS5" s="27">
+      <c r="AS5" s="25">
         <f t="shared" si="0"/>
         <v>45817</v>
       </c>
-      <c r="AT5" s="27">
+      <c r="AT5" s="25">
         <f t="shared" si="0"/>
         <v>45824</v>
       </c>
-      <c r="AU5" s="31">
+      <c r="AU5" s="29">
         <f t="shared" si="0"/>
         <v>45831</v>
       </c>
       <c r="AV5" s="1"/>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -2347,13 +2302,13 @@
         <v>57</v>
       </c>
       <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="O6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="12" t="s">
         <v>59</v>
       </c>
+      <c r="P6" s="51"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="13"/>
@@ -2387,14 +2342,14 @@
       <c r="AU6" s="14"/>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2405,27 +2360,27 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10" t="s">
+      <c r="T7" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
+      <c r="W7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB7" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -2447,14 +2402,14 @@
       <c r="AU7" s="15"/>
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2477,218 +2432,212 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" s="32"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="48" t="s">
-        <v>56</v>
-      </c>
+      <c r="AH8" s="32"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="48"/>
+      <c r="AM8" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="AN8" s="9"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48" t="s">
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AU8" s="48" t="s">
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="32" t="s">
         <v>59</v>
       </c>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="15"/>
     </row>
-    <row r="9" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="58" t="s">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="C9" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="52"/>
-      <c r="AU9" s="52"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="15"/>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="14"/>
+    <row r="10" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="57"/>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="44">
+        <v>60</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="66" t="s">
+      <c r="B11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="10" t="s">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="O11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="15"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="14"/>
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="21"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="40"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2699,230 +2648,229 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="T12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
       <c r="AG12" s="9"/>
-      <c r="AH12" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48" t="s">
-        <v>57</v>
-      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48" t="s">
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="15"/>
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B13" s="56"/>
+      <c r="C13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AU12" s="51" t="s">
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="32" t="s">
         <v>59</v>
       </c>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="50"/>
     </row>
-    <row r="13" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="59" t="s">
+    <row r="14" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="57"/>
+      <c r="C14" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D14" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="22"/>
-    </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="14"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="20"/>
     </row>
     <row r="15" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="66" t="s">
+      <c r="B15" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10" t="s">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="10" t="s">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="O15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="15"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="14"/>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="62"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="40"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2933,104 +2881,158 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="T16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="Z16" s="9"/>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="AB16" s="3"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
       <c r="AG16" s="9"/>
-      <c r="AH16" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM16" s="48"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
       <c r="AN16" s="9"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48" t="s">
-        <v>58</v>
-      </c>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
-      <c r="AU16" s="51" t="s">
+      <c r="AU16" s="15"/>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B17" s="53"/>
+      <c r="C17" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="32" t="s">
         <v>59</v>
       </c>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
     </row>
-    <row r="17" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="60" t="s">
+    <row r="18" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="54"/>
+      <c r="C18" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="19"/>
-    </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="S18"/>
-      <c r="Z18"/>
-      <c r="AG18"/>
-      <c r="AN18"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="19"/>
     </row>
     <row r="19" spans="2:47" x14ac:dyDescent="0.25">
       <c r="S19"/>
@@ -5648,6 +5650,7 @@
     <row r="2562" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2563" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2565" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="AM3:AP3"/>
@@ -5655,14 +5658,14 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\2024_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\2024_2025\Dev201_25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D7D56-7789-4B0E-AE94-47305F17E53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB99F85B-527D-4184-BC8F-25938E408086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94F0BB87-3E48-473B-942D-98824DCDEC0A}"/>
   </bookViews>
@@ -204,31 +204,6 @@
           </rPr>
           <t xml:space="preserve">
 14 janv  nouvel an amazigh
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD8" authorId="0" shapeId="0" xr:uid="{861282DE-A5A1-4D0B-97A6-67CC59C15B32}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Oussama rahmouni:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1 et 2 chawal -&gt; 1 et 2 mars -&gt; aid al fitr
 </t>
         </r>
       </text>
@@ -739,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR18" authorId="0" shapeId="0" xr:uid="{22AA6E0C-CCC8-4A3E-B279-7D0A566AE2D0}">
+    <comment ref="AM18" authorId="0" shapeId="0" xr:uid="{22AA6E0C-CCC8-4A3E-B279-7D0A566AE2D0}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1424,11 +1399,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1448,7 +1436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1492,6 +1479,27 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,27 +1515,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1864,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6675AFBB-6A96-4B34-A155-68C8C20E19A3}">
   <dimension ref="B1:AV2565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="BF10" sqref="BF10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,24 +1897,24 @@
       <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="61" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="64" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
       <c r="Q3" s="58" t="s">
         <v>49</v>
       </c>
@@ -1932,47 +1922,47 @@
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="61" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="64" t="s">
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
       <c r="AI3" s="58" t="s">
         <v>53</v>
       </c>
       <c r="AJ3" s="58"/>
       <c r="AK3" s="58"/>
       <c r="AL3" s="58"/>
-      <c r="AM3" s="60" t="s">
+      <c r="AM3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="61" t="s">
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="62"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="54"/>
     </row>
     <row r="4" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2098,198 +2088,198 @@
       <c r="AT4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AU4" s="22" t="s">
+      <c r="AU4" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>45537</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <f>E5+7</f>
         <v>45544</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <f>F5+7</f>
         <v>45551</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <f>G5+7</f>
         <v>45558</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" ref="I5:AU5" si="0">H5+7</f>
         <v>45565</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>45572</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f t="shared" si="0"/>
         <v>45579</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f t="shared" si="0"/>
         <v>45586</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <f t="shared" si="0"/>
         <v>45593</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f t="shared" si="0"/>
         <v>45600</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <f t="shared" si="0"/>
         <v>45607</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <f t="shared" si="0"/>
         <v>45614</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="26">
         <f t="shared" si="0"/>
         <v>45621</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="26">
         <f t="shared" si="0"/>
         <v>45628</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="26">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="26">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="26">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="23">
         <f t="shared" si="0"/>
         <v>45656</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="23">
         <f t="shared" si="0"/>
         <v>45663</v>
       </c>
-      <c r="X5" s="24">
+      <c r="X5" s="23">
         <f t="shared" si="0"/>
         <v>45670</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="23">
         <f t="shared" si="0"/>
         <v>45677</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="Z5" s="24">
         <f t="shared" si="0"/>
         <v>45684</v>
       </c>
-      <c r="AA5" s="25">
+      <c r="AA5" s="24">
         <f t="shared" si="0"/>
         <v>45691</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AB5" s="24">
         <f t="shared" si="0"/>
         <v>45698</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AC5" s="24">
         <f t="shared" si="0"/>
         <v>45705</v>
       </c>
-      <c r="AD5" s="26">
+      <c r="AD5" s="25">
         <f t="shared" si="0"/>
         <v>45712</v>
       </c>
-      <c r="AE5" s="26">
+      <c r="AE5" s="25">
         <f t="shared" si="0"/>
         <v>45719</v>
       </c>
-      <c r="AF5" s="26">
+      <c r="AF5" s="25">
         <f t="shared" si="0"/>
         <v>45726</v>
       </c>
-      <c r="AG5" s="26">
+      <c r="AG5" s="25">
         <f t="shared" si="0"/>
         <v>45733</v>
       </c>
-      <c r="AH5" s="26">
+      <c r="AH5" s="25">
         <f t="shared" si="0"/>
         <v>45740</v>
       </c>
-      <c r="AI5" s="27">
+      <c r="AI5" s="26">
         <f t="shared" si="0"/>
         <v>45747</v>
       </c>
-      <c r="AJ5" s="27">
+      <c r="AJ5" s="26">
         <f t="shared" si="0"/>
         <v>45754</v>
       </c>
-      <c r="AK5" s="27">
+      <c r="AK5" s="26">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
-      <c r="AL5" s="27">
+      <c r="AL5" s="26">
         <f t="shared" si="0"/>
         <v>45768</v>
       </c>
-      <c r="AM5" s="28">
+      <c r="AM5" s="27">
         <f t="shared" si="0"/>
         <v>45775</v>
       </c>
-      <c r="AN5" s="28">
+      <c r="AN5" s="27">
         <f t="shared" si="0"/>
         <v>45782</v>
       </c>
-      <c r="AO5" s="28">
+      <c r="AO5" s="27">
         <f t="shared" si="0"/>
         <v>45789</v>
       </c>
-      <c r="AP5" s="28">
+      <c r="AP5" s="27">
         <f t="shared" si="0"/>
         <v>45796</v>
       </c>
-      <c r="AQ5" s="25">
+      <c r="AQ5" s="24">
         <f t="shared" si="0"/>
         <v>45803</v>
       </c>
-      <c r="AR5" s="25">
+      <c r="AR5" s="24">
         <f t="shared" si="0"/>
         <v>45810</v>
       </c>
-      <c r="AS5" s="25">
+      <c r="AS5" s="24">
         <f t="shared" si="0"/>
         <v>45817</v>
       </c>
-      <c r="AT5" s="25">
+      <c r="AT5" s="24">
         <f t="shared" si="0"/>
         <v>45824</v>
       </c>
-      <c r="AU5" s="29">
+      <c r="AU5" s="28">
         <f t="shared" si="0"/>
         <v>45831</v>
       </c>
       <c r="AV5" s="1"/>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -2308,7 +2298,7 @@
       <c r="O6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="51"/>
+      <c r="P6" s="50"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="13"/>
@@ -2342,14 +2332,14 @@
       <c r="AU6" s="14"/>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2402,14 +2392,14 @@
       <c r="AU7" s="15"/>
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2432,44 +2422,44 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32" t="s">
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AF8" s="32"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="32" t="s">
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31" t="s">
         <v>57</v>
       </c>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
       <c r="AN8" s="9"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32" t="s">
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31" t="s">
         <v>58</v>
       </c>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-      <c r="AS8" s="32" t="s">
+      <c r="AS8" s="31" t="s">
         <v>59</v>
       </c>
       <c r="AT8" s="3"/>
       <c r="AU8" s="15"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2495,14 +2485,14 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="3"/>
@@ -2514,70 +2504,70 @@
       <c r="AU9" s="15"/>
     </row>
     <row r="10" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
+      <c r="B10" s="63"/>
       <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <v>60</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51" t="s">
         <v>72</v>
       </c>
       <c r="AT10" s="15"/>
       <c r="AU10" s="15"/>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2596,7 +2586,7 @@
       <c r="O11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="51"/>
+      <c r="P11" s="50"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="13"/>
@@ -2630,14 +2620,14 @@
       <c r="AU11" s="14"/>
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2690,14 +2680,14 @@
       <c r="AU12" s="15"/>
     </row>
     <row r="13" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2720,98 +2710,98 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32" t="s">
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AF13" s="32"/>
+      <c r="AF13" s="31"/>
       <c r="AG13" s="9"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32" t="s">
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32" t="s">
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="32" t="s">
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="50"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="49"/>
     </row>
     <row r="14" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="17"/>
       <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="65"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
       <c r="AT14" s="16"/>
-      <c r="AU14" s="20"/>
+      <c r="AU14" s="19"/>
     </row>
     <row r="15" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -2830,6 +2820,7 @@
       <c r="O15" s="12" t="s">
         <v>59</v>
       </c>
+      <c r="P15" s="65"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="13"/>
@@ -2863,14 +2854,14 @@
       <c r="AU15" s="14"/>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2923,14 +2914,14 @@
       <c r="AU16" s="15"/>
     </row>
     <row r="17" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2953,21 +2944,21 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32" t="s">
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AF17" s="32"/>
+      <c r="AF17" s="31"/>
       <c r="AG17" s="9"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32" t="s">
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32" t="s">
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31" t="s">
         <v>58</v>
       </c>
       <c r="AM17" s="3"/>
@@ -2976,21 +2967,21 @@
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-      <c r="AS17" s="32" t="s">
+      <c r="AS17" s="31" t="s">
         <v>59</v>
       </c>
       <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
+      <c r="AU17" s="15"/>
     </row>
     <row r="18" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="54"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -3024,14 +3015,14 @@
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="64"/>
       <c r="AQ18" s="16"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
       <c r="AU18" s="19"/>
     </row>
     <row r="19" spans="2:47" x14ac:dyDescent="0.25">
@@ -5653,6 +5644,11 @@
     <row r="2565" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="B6:B10"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="E3:H3"/>
@@ -5661,11 +5657,6 @@
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
